--- a/example/example.xlsx
+++ b/example/example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\free-mind\games\admin\assets\l10n\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\dart\arbexcel\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F20AB6-7B54-4111-8AC5-4B22B75E5F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E016D0-583B-40D0-9AE6-B078F3D4E212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4464" yWindow="1776" windowWidth="15108" windowHeight="12888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="66">
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
   <si>
     <t>description</t>
   </si>
@@ -38,9 +32,6 @@
     <t>vi</t>
   </si>
   <si>
-    <t>common</t>
-  </si>
-  <si>
     <t>welcome</t>
   </si>
   <si>
@@ -59,9 +50,6 @@
     <t>Dashboard</t>
   </si>
   <si>
-    <t>campaign</t>
-  </si>
-  <si>
     <t>Campaigns</t>
   </si>
   <si>
@@ -219,6 +207,9 @@
   </si>
   <si>
     <t>Condition format: duplicate values</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
@@ -229,21 +220,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -251,7 +242,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -259,7 +250,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -267,35 +258,35 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -303,7 +294,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -311,14 +302,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -326,14 +317,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -341,7 +332,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -349,14 +340,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -770,7 +761,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -789,49 +780,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -846,11 +794,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E18" totalsRowShown="0">
-  <autoFilter ref="A1:E18" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="category"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="text"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D18" totalsRowShown="0">
+  <autoFilter ref="A1:D18" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="4">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="name"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="description"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="en"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="vi"/>
@@ -1168,286 +1115,231 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="37" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
       <c r="D3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
         <v>27</v>
       </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>33</v>
       </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
+      <c r="C13" t="s">
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>34</v>
       </c>
-      <c r="B14" t="s">
-        <v>38</v>
+      <c r="C14" t="s">
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" t="s">
-        <v>39</v>
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" t="s">
-        <v>40</v>
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
       </c>
       <c r="D16" t="s">
         <v>52</v>
       </c>
-      <c r="E16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" t="s">
-        <v>41</v>
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E1:Z12 E16:Z1048576 F13:Z15">
+  <conditionalFormatting sqref="D1:Y12 D16:Y1048576 E13:Y15">
     <cfRule type="containsBlanks" dxfId="1" priority="5">
-      <formula>LEN(TRIM(E1))=0</formula>
+      <formula>LEN(TRIM(D1))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
+  <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1466,52 +1358,52 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="0.8984375" customWidth="1"/>
-    <col min="2" max="2" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="0.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="7.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="2:4" ht="7.15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
         <v>43</v>
-      </c>
-      <c r="D2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C6" s="3"/>
     </row>

--- a/example/example.xlsx
+++ b/example/example.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\dart\arbexcel\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\flutter\arbxcel\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E016D0-583B-40D0-9AE6-B078F3D4E212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4903AA5A-5B87-496F-A446-735B0F1793E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3765" yWindow="2550" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Text" sheetId="1" r:id="rId1"/>
-    <sheet name="Note" sheetId="2" r:id="rId2"/>
+    <sheet name="Main" sheetId="4" r:id="rId1"/>
+    <sheet name="Placeholders" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>description</t>
   </si>
@@ -29,194 +29,146 @@
     <t>en</t>
   </si>
   <si>
-    <t>vi</t>
-  </si>
-  <si>
-    <t>welcome</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>Support</t>
-  </si>
-  <si>
-    <t>Hỗ trợ</t>
-  </si>
-  <si>
-    <t>dashboard</t>
-  </si>
-  <si>
-    <t>Dashboard</t>
-  </si>
-  <si>
-    <t>Campaigns</t>
-  </si>
-  <si>
-    <t>Chiến dịch</t>
-  </si>
-  <si>
-    <t>Ez-Connect</t>
-  </si>
-  <si>
-    <t>Welcome</t>
-  </si>
-  <si>
-    <t>FREEMIND</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>The company title</t>
-  </si>
-  <si>
-    <t>Hi, {name}</t>
-  </si>
-  <si>
-    <t>Xin chào, {name}</t>
-  </si>
-  <si>
-    <t>analytics</t>
-  </si>
-  <si>
-    <t>Analytics</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>Game</t>
-  </si>
-  <si>
-    <t>Subcription Setting</t>
-  </si>
-  <si>
-    <t>subscriptionSetting</t>
-  </si>
-  <si>
-    <t>Payment History</t>
-  </si>
-  <si>
-    <t>paymentHistory</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>Log Out</t>
-  </si>
-  <si>
-    <t>logout</t>
-  </si>
-  <si>
-    <t>language</t>
-  </si>
-  <si>
-    <t>profile</t>
-  </si>
-  <si>
-    <t>Profile</t>
-  </si>
-  <si>
-    <t>campaignList</t>
-  </si>
-  <si>
-    <t>firstName</t>
-  </si>
-  <si>
-    <t>lastName</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>phoneNumber</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Color</t>
-  </si>
-  <si>
-    <t>To review</t>
-  </si>
-  <si>
-    <t>To translated</t>
-  </si>
-  <si>
-    <t>Approved</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Họ</t>
-  </si>
-  <si>
-    <t>Tên</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>First name</t>
-  </si>
-  <si>
-    <t>Phone number</t>
-  </si>
-  <si>
-    <t>Last name</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Quốc gia</t>
-  </si>
-  <si>
-    <t>Số điện thoại</t>
-  </si>
-  <si>
-    <t>Tài khoản</t>
-  </si>
-  <si>
-    <t>Đăng xuất</t>
-  </si>
-  <si>
-    <t>Ngôn ngữ</t>
-  </si>
-  <si>
-    <t>Lịch sử giao dịch</t>
-  </si>
-  <si>
-    <t>Nâng cấp</t>
-  </si>
-  <si>
-    <t>Thống kê</t>
-  </si>
-  <si>
-    <t>Duplicate text</t>
-  </si>
-  <si>
-    <t>Condition format: blank value</t>
-  </si>
-  <si>
-    <t>Condition format: duplicate values</t>
-  </si>
-  <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>timesUpOtpExpired</t>
+  </si>
+  <si>
+    <t>Waktu habis, OTP sudah hangus.</t>
+  </si>
+  <si>
+    <t>Time's up, OTP Expired</t>
+  </si>
+  <si>
+    <t>resendOtp</t>
+  </si>
+  <si>
+    <t>Kirim Ulang OTP</t>
+  </si>
+  <si>
+    <t>Resend OTP</t>
+  </si>
+  <si>
+    <t>incorrectPin</t>
+  </si>
+  <si>
+    <t>PIN tidak sama</t>
+  </si>
+  <si>
+    <t>PIN Incorrect</t>
+  </si>
+  <si>
+    <t>inputPin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masukkan PIN </t>
+  </si>
+  <si>
+    <t>Enter your PIN</t>
+  </si>
+  <si>
+    <t>placeholders</t>
+  </si>
+  <si>
+    <t>inputPhoneNumber</t>
+  </si>
+  <si>
+    <t>Masukkan No HP</t>
+  </si>
+  <si>
+    <t>Enter your mobile number</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>Masuk</t>
+  </si>
+  <si>
+    <t>Log In</t>
+  </si>
+  <si>
+    <t>changeOtherAccount</t>
+  </si>
+  <si>
+    <t>Ganti Akun Lainnya</t>
+  </si>
+  <si>
+    <t>Change Other Account</t>
+  </si>
+  <si>
+    <t>howToVerifyAccount</t>
+  </si>
+  <si>
+    <t>Lihat Cara Verifikasi</t>
+  </si>
+  <si>
+    <t>How to Verify Account</t>
+  </si>
+  <si>
+    <t>enterOtpFor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masukkan Kode OTP yang dikirimkan ke {phoneNumber} </t>
+  </si>
+  <si>
+    <t>Enter the OTP code sent to {phoneNumber}</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>"String"</t>
+  </si>
+  <si>
+    <t>{"phoneNumber": {"type":$string}}</t>
+  </si>
+  <si>
+    <t>date1</t>
+  </si>
+  <si>
+    <t>"DateTime", "format": "yMd"</t>
+  </si>
+  <si>
+    <t>"DateTime", "format": "dMy"</t>
+  </si>
+  <si>
+    <t>payAtDate</t>
+  </si>
+  <si>
+    <t>Bayar pada tanggal {date}</t>
+  </si>
+  <si>
+    <t>Pay when {date}</t>
+  </si>
+  <si>
+    <t>{"date": {"type": $date1}}</t>
+  </si>
+  <si>
+    <t>cartOf</t>
+  </si>
+  <si>
+    <t>Keranjang ke {cartNumber}</t>
+  </si>
+  <si>
+    <t>Cart of {cartNumber}</t>
+  </si>
+  <si>
+    <t>{"cartNumber": {"type": "int"}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,6 +303,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -540,18 +511,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor rgb="FF8AEEB0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -666,6 +637,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -711,11 +697,33 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -761,26 +769,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -791,31 +780,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D18" totalsRowShown="0">
-  <autoFilter ref="A1:D18" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="4">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="name"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="description"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="en"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="vi"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C8FC3499-12BC-435E-BB6E-72634892E2D2}" name="Table2" displayName="Table2" ref="B2:D6" totalsRowShown="0">
-  <autoFilter ref="B2:D6" xr:uid="{C8FC3499-12BC-435E-BB6E-72634892E2D2}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{DA4621A8-96BC-436C-9FE8-B6EC06E2D61D}" name="Status"/>
-    <tableColumn id="2" xr3:uid="{C1CD239F-4F43-42AD-B4D1-106DCAB44A1B}" name="Color"/>
-    <tableColumn id="3" xr3:uid="{DA2BF46A-9EAE-4EE3-B6FE-4449245638CF}" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1114,303 +1078,2038 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D862172-0897-41A5-9DB4-BD3D42BCFF76}">
+  <dimension ref="A1:E265"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="37" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="48.28515625" customWidth="1"/>
+    <col min="4" max="4" width="77.85546875" customWidth="1"/>
+    <col min="5" max="5" width="61.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" t="s">
+    </row>
+    <row r="11" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E11" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" t="s">
-        <v>10</v>
-      </c>
+    <row r="12" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+    </row>
+    <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+    </row>
+    <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+    </row>
+    <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+    </row>
+    <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+    </row>
+    <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+    </row>
+    <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+    </row>
+    <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+    </row>
+    <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+    </row>
+    <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+    </row>
+    <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+    </row>
+    <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+    </row>
+    <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+    </row>
+    <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+    </row>
+    <row r="81" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+    </row>
+    <row r="82" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+    </row>
+    <row r="83" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+    </row>
+    <row r="84" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+    </row>
+    <row r="85" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+    </row>
+    <row r="86" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+    </row>
+    <row r="87" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+    </row>
+    <row r="88" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+    </row>
+    <row r="89" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+    </row>
+    <row r="90" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="7"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+    </row>
+    <row r="91" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+    </row>
+    <row r="92" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+    </row>
+    <row r="93" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+    </row>
+    <row r="94" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+    </row>
+    <row r="95" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="7"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+    </row>
+    <row r="96" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+    </row>
+    <row r="97" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+    </row>
+    <row r="98" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="7"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+    </row>
+    <row r="99" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+    </row>
+    <row r="100" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+    </row>
+    <row r="101" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A101" s="3"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+    </row>
+    <row r="102" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A102" s="3"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+    </row>
+    <row r="103" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="3"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+    </row>
+    <row r="104" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A104" s="3"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+    </row>
+    <row r="105" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A105" s="3"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+    </row>
+    <row r="106" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A106" s="7"/>
+      <c r="B106" s="7"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+    </row>
+    <row r="107" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A107" s="3"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
+    </row>
+    <row r="108" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A108" s="3"/>
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
+    </row>
+    <row r="109" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A109" s="3"/>
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
+    </row>
+    <row r="110" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A110" s="3"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+    </row>
+    <row r="111" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A111" s="3"/>
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+    </row>
+    <row r="112" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A112" s="3"/>
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="3"/>
+    </row>
+    <row r="113" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A113" s="3"/>
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+    </row>
+    <row r="114" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A114" s="3"/>
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+    </row>
+    <row r="115" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A115" s="3"/>
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
+      <c r="E115" s="3"/>
+    </row>
+    <row r="116" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A116" s="7"/>
+      <c r="B116" s="7"/>
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7"/>
+    </row>
+    <row r="117" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A117" s="3"/>
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
+    </row>
+    <row r="118" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A118" s="3"/>
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
+    </row>
+    <row r="119" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A119" s="3"/>
+      <c r="B119" s="3"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="8"/>
+    </row>
+    <row r="120" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A120" s="3"/>
+      <c r="B120" s="3"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="8"/>
+    </row>
+    <row r="121" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A121" s="3"/>
+      <c r="B121" s="3"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
+    </row>
+    <row r="122" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A122" s="3"/>
+      <c r="B122" s="3"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3"/>
+      <c r="E122" s="3"/>
+    </row>
+    <row r="123" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A123" s="3"/>
+      <c r="B123" s="3"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="3"/>
+      <c r="E123" s="3"/>
+    </row>
+    <row r="124" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A124" s="3"/>
+      <c r="B124" s="3"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="3"/>
+      <c r="E124" s="3"/>
+    </row>
+    <row r="125" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A125" s="3"/>
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3"/>
+    </row>
+    <row r="126" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A126" s="3"/>
+      <c r="B126" s="3"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3"/>
+    </row>
+    <row r="127" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A127" s="3"/>
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3"/>
+    </row>
+    <row r="128" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A128" s="3"/>
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3"/>
+    </row>
+    <row r="129" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A129" s="3"/>
+      <c r="B129" s="3"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3"/>
+    </row>
+    <row r="130" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A130" s="3"/>
+      <c r="B130" s="3"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3"/>
+    </row>
+    <row r="131" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A131" s="3"/>
+      <c r="B131" s="3"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3"/>
+    </row>
+    <row r="132" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A132" s="3"/>
+      <c r="B132" s="3"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3"/>
+      <c r="E132" s="3"/>
+    </row>
+    <row r="133" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A133" s="3"/>
+      <c r="B133" s="3"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3"/>
+    </row>
+    <row r="134" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A134" s="3"/>
+      <c r="B134" s="3"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3"/>
+    </row>
+    <row r="135" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A135" s="3"/>
+      <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3"/>
+    </row>
+    <row r="136" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A136" s="3"/>
+      <c r="B136" s="3"/>
+      <c r="C136" s="3"/>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3"/>
+    </row>
+    <row r="137" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A137" s="3"/>
+      <c r="B137" s="3"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3"/>
+    </row>
+    <row r="138" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A138" s="3"/>
+      <c r="B138" s="3"/>
+      <c r="C138" s="3"/>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3"/>
+    </row>
+    <row r="139" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A139" s="3"/>
+      <c r="B139" s="3"/>
+      <c r="C139" s="3"/>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3"/>
+    </row>
+    <row r="140" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A140" s="3"/>
+      <c r="B140" s="3"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3"/>
+    </row>
+    <row r="141" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A141" s="3"/>
+      <c r="B141" s="3"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="3"/>
+      <c r="E141" s="3"/>
+    </row>
+    <row r="142" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A142" s="3"/>
+      <c r="B142" s="3"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="3"/>
+      <c r="E142" s="3"/>
+    </row>
+    <row r="143" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A143" s="3"/>
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3"/>
+    </row>
+    <row r="144" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A144" s="3"/>
+      <c r="B144" s="3"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="3"/>
+      <c r="E144" s="3"/>
+    </row>
+    <row r="145" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A145" s="3"/>
+      <c r="B145" s="3"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="3"/>
+      <c r="E145" s="3"/>
+    </row>
+    <row r="146" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A146" s="3"/>
+      <c r="B146" s="3"/>
+      <c r="C146" s="3"/>
+      <c r="D146" s="3"/>
+      <c r="E146" s="3"/>
+    </row>
+    <row r="147" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A147" s="3"/>
+      <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="3"/>
+      <c r="E147" s="3"/>
+    </row>
+    <row r="148" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A148" s="3"/>
+      <c r="B148" s="3"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="3"/>
+      <c r="E148" s="3"/>
+    </row>
+    <row r="149" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A149" s="3"/>
+      <c r="B149" s="3"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3"/>
+    </row>
+    <row r="150" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A150" s="3"/>
+      <c r="B150" s="3"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="3"/>
+      <c r="E150" s="3"/>
+    </row>
+    <row r="151" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A151" s="3"/>
+      <c r="B151" s="3"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="3"/>
+      <c r="E151" s="3"/>
+    </row>
+    <row r="152" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A152" s="3"/>
+      <c r="B152" s="3"/>
+      <c r="C152" s="3"/>
+      <c r="D152" s="3"/>
+      <c r="E152" s="3"/>
+    </row>
+    <row r="153" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A153" s="3"/>
+      <c r="B153" s="3"/>
+      <c r="C153" s="3"/>
+      <c r="D153" s="3"/>
+      <c r="E153" s="3"/>
+    </row>
+    <row r="154" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A154" s="3"/>
+      <c r="B154" s="3"/>
+      <c r="C154" s="3"/>
+      <c r="D154" s="3"/>
+      <c r="E154" s="3"/>
+    </row>
+    <row r="155" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A155" s="3"/>
+      <c r="B155" s="3"/>
+      <c r="C155" s="3"/>
+      <c r="D155" s="3"/>
+      <c r="E155" s="3"/>
+    </row>
+    <row r="156" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A156" s="3"/>
+      <c r="B156" s="3"/>
+      <c r="C156" s="3"/>
+      <c r="D156" s="3"/>
+      <c r="E156" s="3"/>
+    </row>
+    <row r="157" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A157" s="3"/>
+      <c r="B157" s="3"/>
+      <c r="C157" s="3"/>
+      <c r="D157" s="3"/>
+      <c r="E157" s="3"/>
+    </row>
+    <row r="158" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A158" s="3"/>
+      <c r="B158" s="3"/>
+      <c r="C158" s="3"/>
+      <c r="D158" s="3"/>
+      <c r="E158" s="3"/>
+    </row>
+    <row r="159" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A159" s="3"/>
+      <c r="B159" s="3"/>
+      <c r="C159" s="3"/>
+      <c r="D159" s="3"/>
+      <c r="E159" s="3"/>
+    </row>
+    <row r="160" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A160" s="3"/>
+      <c r="B160" s="3"/>
+      <c r="C160" s="3"/>
+      <c r="D160" s="3"/>
+      <c r="E160" s="3"/>
+    </row>
+    <row r="161" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A161" s="3"/>
+      <c r="B161" s="3"/>
+      <c r="C161" s="3"/>
+      <c r="D161" s="3"/>
+      <c r="E161" s="3"/>
+    </row>
+    <row r="162" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A162" s="3"/>
+      <c r="B162" s="3"/>
+      <c r="C162" s="3"/>
+      <c r="D162" s="3"/>
+      <c r="E162" s="3"/>
+    </row>
+    <row r="163" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A163" s="3"/>
+      <c r="B163" s="3"/>
+      <c r="C163" s="3"/>
+      <c r="D163" s="3"/>
+      <c r="E163" s="3"/>
+    </row>
+    <row r="164" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A164" s="3"/>
+      <c r="B164" s="3"/>
+      <c r="C164" s="3"/>
+      <c r="D164" s="3"/>
+      <c r="E164" s="3"/>
+    </row>
+    <row r="165" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A165" s="3"/>
+      <c r="B165" s="3"/>
+      <c r="C165" s="3"/>
+      <c r="D165" s="3"/>
+      <c r="E165" s="3"/>
+    </row>
+    <row r="166" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A166" s="3"/>
+      <c r="B166" s="3"/>
+      <c r="C166" s="3"/>
+      <c r="D166" s="3"/>
+      <c r="E166" s="3"/>
+    </row>
+    <row r="167" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A167" s="3"/>
+      <c r="B167" s="3"/>
+      <c r="C167" s="3"/>
+      <c r="D167" s="3"/>
+      <c r="E167" s="3"/>
+    </row>
+    <row r="168" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A168" s="3"/>
+      <c r="B168" s="3"/>
+      <c r="C168" s="3"/>
+      <c r="D168" s="3"/>
+      <c r="E168" s="3"/>
+    </row>
+    <row r="169" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A169" s="3"/>
+      <c r="B169" s="3"/>
+      <c r="C169" s="3"/>
+      <c r="D169" s="3"/>
+      <c r="E169" s="3"/>
+    </row>
+    <row r="170" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A170" s="3"/>
+      <c r="B170" s="3"/>
+      <c r="C170" s="3"/>
+      <c r="D170" s="3"/>
+      <c r="E170" s="3"/>
+    </row>
+    <row r="171" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A171" s="3"/>
+      <c r="B171" s="3"/>
+      <c r="C171" s="3"/>
+      <c r="D171" s="3"/>
+      <c r="E171" s="3"/>
+    </row>
+    <row r="172" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A172" s="3"/>
+      <c r="B172" s="3"/>
+      <c r="C172" s="3"/>
+      <c r="D172" s="3"/>
+      <c r="E172" s="3"/>
+    </row>
+    <row r="173" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A173" s="3"/>
+      <c r="B173" s="3"/>
+      <c r="C173" s="3"/>
+      <c r="D173" s="3"/>
+      <c r="E173" s="3"/>
+    </row>
+    <row r="174" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A174" s="3"/>
+      <c r="B174" s="3"/>
+      <c r="C174" s="3"/>
+      <c r="D174" s="3"/>
+      <c r="E174" s="3"/>
+    </row>
+    <row r="175" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A175" s="3"/>
+      <c r="B175" s="3"/>
+      <c r="C175" s="3"/>
+      <c r="D175" s="3"/>
+      <c r="E175" s="3"/>
+    </row>
+    <row r="176" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A176" s="3"/>
+      <c r="B176" s="3"/>
+      <c r="C176" s="3"/>
+      <c r="D176" s="3"/>
+      <c r="E176" s="3"/>
+    </row>
+    <row r="177" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A177" s="3"/>
+      <c r="B177" s="3"/>
+      <c r="C177" s="3"/>
+      <c r="D177" s="3"/>
+      <c r="E177" s="3"/>
+    </row>
+    <row r="178" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A178" s="3"/>
+      <c r="B178" s="3"/>
+      <c r="C178" s="3"/>
+      <c r="D178" s="3"/>
+      <c r="E178" s="3"/>
+    </row>
+    <row r="179" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A179" s="3"/>
+      <c r="B179" s="3"/>
+      <c r="C179" s="3"/>
+      <c r="D179" s="3"/>
+      <c r="E179" s="3"/>
+    </row>
+    <row r="180" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A180" s="3"/>
+      <c r="B180" s="3"/>
+      <c r="C180" s="3"/>
+      <c r="D180" s="3"/>
+      <c r="E180" s="3"/>
+    </row>
+    <row r="181" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A181" s="3"/>
+      <c r="B181" s="3"/>
+      <c r="C181" s="3"/>
+      <c r="D181" s="3"/>
+      <c r="E181" s="3"/>
+    </row>
+    <row r="182" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A182" s="3"/>
+      <c r="B182" s="3"/>
+      <c r="C182" s="3"/>
+      <c r="D182" s="3"/>
+      <c r="E182" s="3"/>
+    </row>
+    <row r="183" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A183" s="3"/>
+      <c r="B183" s="3"/>
+      <c r="C183" s="3"/>
+      <c r="D183" s="3"/>
+      <c r="E183" s="3"/>
+    </row>
+    <row r="184" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A184" s="3"/>
+      <c r="B184" s="3"/>
+      <c r="C184" s="3"/>
+      <c r="D184" s="3"/>
+      <c r="E184" s="3"/>
+    </row>
+    <row r="185" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A185" s="3"/>
+      <c r="B185" s="3"/>
+      <c r="C185" s="3"/>
+      <c r="D185" s="3"/>
+      <c r="E185" s="3"/>
+    </row>
+    <row r="186" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A186" s="7"/>
+      <c r="B186" s="7"/>
+      <c r="C186" s="7"/>
+      <c r="D186" s="9"/>
+      <c r="E186" s="9"/>
+    </row>
+    <row r="187" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A187" s="3"/>
+      <c r="B187" s="3"/>
+      <c r="C187" s="3"/>
+      <c r="D187" s="3"/>
+      <c r="E187" s="3"/>
+    </row>
+    <row r="188" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A188" s="3"/>
+      <c r="B188" s="3"/>
+      <c r="C188" s="3"/>
+      <c r="D188" s="3"/>
+      <c r="E188" s="3"/>
+    </row>
+    <row r="189" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A189" s="3"/>
+      <c r="B189" s="3"/>
+      <c r="C189" s="3"/>
+      <c r="D189" s="3"/>
+      <c r="E189" s="3"/>
+    </row>
+    <row r="190" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A190" s="3"/>
+      <c r="B190" s="3"/>
+      <c r="C190" s="3"/>
+      <c r="D190" s="3"/>
+      <c r="E190" s="3"/>
+    </row>
+    <row r="191" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A191" s="3"/>
+      <c r="B191" s="3"/>
+      <c r="C191" s="3"/>
+      <c r="D191" s="3"/>
+      <c r="E191" s="3"/>
+    </row>
+    <row r="192" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A192" s="3"/>
+      <c r="B192" s="3"/>
+      <c r="C192" s="3"/>
+      <c r="D192" s="3"/>
+      <c r="E192" s="3"/>
+    </row>
+    <row r="193" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A193" s="3"/>
+      <c r="B193" s="3"/>
+      <c r="C193" s="3"/>
+      <c r="D193" s="3"/>
+      <c r="E193" s="3"/>
+    </row>
+    <row r="194" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A194" s="3"/>
+      <c r="B194" s="3"/>
+      <c r="C194" s="3"/>
+      <c r="D194" s="3"/>
+      <c r="E194" s="3"/>
+    </row>
+    <row r="195" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A195" s="3"/>
+      <c r="B195" s="3"/>
+      <c r="C195" s="3"/>
+      <c r="D195" s="3"/>
+      <c r="E195" s="3"/>
+    </row>
+    <row r="196" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A196" s="3"/>
+      <c r="B196" s="3"/>
+      <c r="C196" s="3"/>
+      <c r="D196" s="3"/>
+      <c r="E196" s="3"/>
+    </row>
+    <row r="197" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A197" s="3"/>
+      <c r="B197" s="3"/>
+      <c r="C197" s="3"/>
+      <c r="D197" s="3"/>
+      <c r="E197" s="3"/>
+    </row>
+    <row r="198" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A198" s="3"/>
+      <c r="B198" s="3"/>
+      <c r="C198" s="3"/>
+      <c r="D198" s="3"/>
+      <c r="E198" s="3"/>
+    </row>
+    <row r="199" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A199" s="3"/>
+      <c r="B199" s="3"/>
+      <c r="C199" s="3"/>
+      <c r="D199" s="3"/>
+      <c r="E199" s="3"/>
+    </row>
+    <row r="200" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A200" s="3"/>
+      <c r="B200" s="3"/>
+      <c r="C200" s="3"/>
+      <c r="D200" s="3"/>
+      <c r="E200" s="3"/>
+    </row>
+    <row r="201" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A201" s="3"/>
+      <c r="B201" s="3"/>
+      <c r="C201" s="3"/>
+      <c r="D201" s="3"/>
+      <c r="E201" s="3"/>
+    </row>
+    <row r="202" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A202" s="3"/>
+      <c r="B202" s="3"/>
+      <c r="C202" s="3"/>
+      <c r="D202" s="3"/>
+      <c r="E202" s="3"/>
+    </row>
+    <row r="203" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A203" s="3"/>
+      <c r="B203" s="3"/>
+      <c r="C203" s="3"/>
+      <c r="D203" s="3"/>
+      <c r="E203" s="3"/>
+    </row>
+    <row r="204" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A204" s="3"/>
+      <c r="B204" s="3"/>
+      <c r="C204" s="3"/>
+      <c r="D204" s="3"/>
+      <c r="E204" s="3"/>
+    </row>
+    <row r="205" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A205" s="3"/>
+      <c r="B205" s="3"/>
+      <c r="C205" s="3"/>
+      <c r="D205" s="3"/>
+      <c r="E205" s="3"/>
+    </row>
+    <row r="206" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A206" s="3"/>
+      <c r="B206" s="3"/>
+      <c r="C206" s="3"/>
+      <c r="D206" s="3"/>
+      <c r="E206" s="3"/>
+    </row>
+    <row r="207" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A207" s="3"/>
+      <c r="B207" s="3"/>
+      <c r="C207" s="3"/>
+      <c r="D207" s="3"/>
+      <c r="E207" s="3"/>
+    </row>
+    <row r="208" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A208" s="3"/>
+      <c r="B208" s="3"/>
+      <c r="C208" s="3"/>
+      <c r="D208" s="3"/>
+      <c r="E208" s="3"/>
+    </row>
+    <row r="209" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A209" s="3"/>
+      <c r="B209" s="3"/>
+      <c r="C209" s="3"/>
+      <c r="D209" s="3"/>
+      <c r="E209" s="3"/>
+    </row>
+    <row r="210" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A210" s="3"/>
+      <c r="B210" s="3"/>
+      <c r="C210" s="3"/>
+      <c r="D210" s="3"/>
+      <c r="E210" s="3"/>
+    </row>
+    <row r="211" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A211" s="3"/>
+      <c r="B211" s="3"/>
+      <c r="C211" s="3"/>
+      <c r="D211" s="3"/>
+      <c r="E211" s="3"/>
+    </row>
+    <row r="212" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A212" s="3"/>
+      <c r="B212" s="3"/>
+      <c r="C212" s="3"/>
+      <c r="D212" s="3"/>
+      <c r="E212" s="3"/>
+    </row>
+    <row r="213" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A213" s="3"/>
+      <c r="B213" s="3"/>
+      <c r="C213" s="3"/>
+      <c r="D213" s="3"/>
+      <c r="E213" s="3"/>
+    </row>
+    <row r="214" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A214" s="3"/>
+      <c r="B214" s="3"/>
+      <c r="C214" s="3"/>
+      <c r="D214" s="3"/>
+      <c r="E214" s="3"/>
+    </row>
+    <row r="215" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A215" s="3"/>
+      <c r="B215" s="3"/>
+      <c r="C215" s="3"/>
+      <c r="D215" s="3"/>
+      <c r="E215" s="3"/>
+    </row>
+    <row r="216" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A216" s="3"/>
+      <c r="B216" s="3"/>
+      <c r="C216" s="3"/>
+      <c r="D216" s="3"/>
+      <c r="E216" s="3"/>
+    </row>
+    <row r="217" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A217" s="3"/>
+      <c r="B217" s="3"/>
+      <c r="C217" s="3"/>
+      <c r="D217" s="3"/>
+      <c r="E217" s="3"/>
+    </row>
+    <row r="218" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A218" s="3"/>
+      <c r="B218" s="3"/>
+      <c r="C218" s="3"/>
+      <c r="D218" s="3"/>
+      <c r="E218" s="3"/>
+    </row>
+    <row r="219" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A219" s="3"/>
+      <c r="B219" s="3"/>
+      <c r="C219" s="3"/>
+      <c r="D219" s="3"/>
+      <c r="E219" s="3"/>
+    </row>
+    <row r="220" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A220" s="3"/>
+      <c r="B220" s="3"/>
+      <c r="C220" s="3"/>
+      <c r="D220" s="3"/>
+      <c r="E220" s="3"/>
+    </row>
+    <row r="221" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A221" s="3"/>
+      <c r="B221" s="3"/>
+      <c r="C221" s="3"/>
+      <c r="D221" s="3"/>
+      <c r="E221" s="3"/>
+    </row>
+    <row r="222" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A222" s="3"/>
+      <c r="B222" s="3"/>
+      <c r="C222" s="3"/>
+      <c r="D222" s="3"/>
+      <c r="E222" s="3"/>
+    </row>
+    <row r="223" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A223" s="3"/>
+      <c r="B223" s="3"/>
+      <c r="C223" s="3"/>
+      <c r="D223" s="3"/>
+      <c r="E223" s="3"/>
+    </row>
+    <row r="224" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A224" s="3"/>
+      <c r="B224" s="3"/>
+      <c r="C224" s="3"/>
+      <c r="D224" s="3"/>
+      <c r="E224" s="3"/>
+    </row>
+    <row r="225" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A225" s="3"/>
+      <c r="B225" s="3"/>
+      <c r="C225" s="3"/>
+      <c r="D225" s="3"/>
+      <c r="E225" s="3"/>
+    </row>
+    <row r="226" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A226" s="3"/>
+      <c r="B226" s="3"/>
+      <c r="C226" s="3"/>
+      <c r="D226" s="3"/>
+      <c r="E226" s="3"/>
+    </row>
+    <row r="227" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A227" s="3"/>
+      <c r="B227" s="3"/>
+      <c r="C227" s="3"/>
+      <c r="D227" s="3"/>
+      <c r="E227" s="3"/>
+    </row>
+    <row r="228" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A228" s="3"/>
+      <c r="B228" s="3"/>
+      <c r="C228" s="3"/>
+      <c r="D228" s="3"/>
+      <c r="E228" s="3"/>
+    </row>
+    <row r="229" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A229" s="3"/>
+      <c r="B229" s="3"/>
+      <c r="C229" s="3"/>
+      <c r="D229" s="3"/>
+      <c r="E229" s="3"/>
+    </row>
+    <row r="230" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A230" s="3"/>
+      <c r="B230" s="3"/>
+      <c r="C230" s="3"/>
+      <c r="D230" s="3"/>
+      <c r="E230" s="3"/>
+    </row>
+    <row r="231" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A231" s="3"/>
+      <c r="B231" s="3"/>
+      <c r="C231" s="3"/>
+      <c r="D231" s="3"/>
+      <c r="E231" s="3"/>
+    </row>
+    <row r="232" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A232" s="3"/>
+      <c r="B232" s="3"/>
+      <c r="C232" s="3"/>
+      <c r="D232" s="3"/>
+      <c r="E232" s="3"/>
+    </row>
+    <row r="233" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A233" s="3"/>
+      <c r="B233" s="3"/>
+      <c r="C233" s="3"/>
+      <c r="D233" s="3"/>
+      <c r="E233" s="3"/>
+    </row>
+    <row r="234" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A234" s="3"/>
+      <c r="B234" s="3"/>
+      <c r="C234" s="3"/>
+      <c r="D234" s="3"/>
+      <c r="E234" s="3"/>
+    </row>
+    <row r="235" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A235" s="3"/>
+      <c r="B235" s="3"/>
+      <c r="C235" s="3"/>
+      <c r="D235" s="3"/>
+      <c r="E235" s="3"/>
+    </row>
+    <row r="236" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A236" s="3"/>
+      <c r="B236" s="3"/>
+      <c r="C236" s="3"/>
+      <c r="D236" s="3"/>
+      <c r="E236" s="3"/>
+    </row>
+    <row r="237" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A237" s="3"/>
+      <c r="B237" s="3"/>
+      <c r="C237" s="3"/>
+      <c r="D237" s="3"/>
+      <c r="E237" s="3"/>
+    </row>
+    <row r="238" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A238" s="3"/>
+      <c r="B238" s="3"/>
+      <c r="C238" s="3"/>
+      <c r="D238" s="3"/>
+      <c r="E238" s="3"/>
+    </row>
+    <row r="239" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A239" s="3"/>
+      <c r="B239" s="3"/>
+      <c r="C239" s="3"/>
+      <c r="D239" s="3"/>
+      <c r="E239" s="3"/>
+    </row>
+    <row r="240" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A240" s="3"/>
+      <c r="B240" s="3"/>
+      <c r="C240" s="3"/>
+      <c r="D240" s="3"/>
+      <c r="E240" s="3"/>
+    </row>
+    <row r="241" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A241" s="3"/>
+      <c r="B241" s="3"/>
+      <c r="C241" s="3"/>
+      <c r="D241" s="3"/>
+      <c r="E241" s="3"/>
+    </row>
+    <row r="242" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A242" s="3"/>
+      <c r="B242" s="3"/>
+      <c r="C242" s="3"/>
+      <c r="D242" s="3"/>
+      <c r="E242" s="3"/>
+    </row>
+    <row r="243" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A243" s="3"/>
+      <c r="B243" s="3"/>
+      <c r="C243" s="3"/>
+      <c r="D243" s="3"/>
+      <c r="E243" s="3"/>
+    </row>
+    <row r="244" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A244" s="3"/>
+      <c r="B244" s="3"/>
+      <c r="C244" s="3"/>
+      <c r="D244" s="3"/>
+      <c r="E244" s="3"/>
+    </row>
+    <row r="245" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A245" s="3"/>
+      <c r="B245" s="3"/>
+      <c r="C245" s="3"/>
+      <c r="D245" s="3"/>
+      <c r="E245" s="3"/>
+    </row>
+    <row r="246" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A246" s="3"/>
+      <c r="B246" s="3"/>
+      <c r="C246" s="3"/>
+      <c r="D246" s="3"/>
+      <c r="E246" s="3"/>
+    </row>
+    <row r="247" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A247" s="3"/>
+      <c r="B247" s="3"/>
+      <c r="C247" s="3"/>
+      <c r="D247" s="3"/>
+      <c r="E247" s="3"/>
+    </row>
+    <row r="248" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A248" s="3"/>
+      <c r="B248" s="3"/>
+      <c r="C248" s="3"/>
+      <c r="D248" s="3"/>
+      <c r="E248" s="3"/>
+    </row>
+    <row r="249" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A249" s="3"/>
+      <c r="B249" s="3"/>
+      <c r="C249" s="3"/>
+      <c r="D249" s="3"/>
+      <c r="E249" s="3"/>
+    </row>
+    <row r="250" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A250" s="3"/>
+      <c r="B250" s="3"/>
+      <c r="C250" s="3"/>
+      <c r="D250" s="3"/>
+      <c r="E250" s="3"/>
+    </row>
+    <row r="251" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A251" s="3"/>
+      <c r="B251" s="3"/>
+      <c r="C251" s="3"/>
+      <c r="D251" s="3"/>
+      <c r="E251" s="3"/>
+    </row>
+    <row r="252" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A252" s="3"/>
+      <c r="B252" s="3"/>
+      <c r="C252" s="3"/>
+      <c r="D252" s="3"/>
+      <c r="E252" s="3"/>
+    </row>
+    <row r="253" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A253" s="3"/>
+      <c r="B253" s="3"/>
+      <c r="C253" s="3"/>
+      <c r="D253" s="3"/>
+      <c r="E253" s="3"/>
+    </row>
+    <row r="254" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A254" s="3"/>
+      <c r="B254" s="3"/>
+      <c r="C254" s="3"/>
+      <c r="D254" s="3"/>
+      <c r="E254" s="3"/>
+    </row>
+    <row r="255" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A255" s="3"/>
+      <c r="B255" s="3"/>
+      <c r="C255" s="3"/>
+      <c r="D255" s="3"/>
+      <c r="E255" s="3"/>
+    </row>
+    <row r="256" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A256" s="3"/>
+      <c r="B256" s="3"/>
+      <c r="C256" s="3"/>
+      <c r="D256" s="3"/>
+      <c r="E256" s="3"/>
+    </row>
+    <row r="257" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A257" s="3"/>
+      <c r="B257" s="3"/>
+      <c r="C257" s="3"/>
+      <c r="D257" s="3"/>
+      <c r="E257" s="3"/>
+    </row>
+    <row r="258" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A258" s="3"/>
+      <c r="B258" s="3"/>
+      <c r="C258" s="3"/>
+      <c r="D258" s="3"/>
+      <c r="E258" s="3"/>
+    </row>
+    <row r="259" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A259" s="3"/>
+      <c r="B259" s="3"/>
+      <c r="C259" s="3"/>
+      <c r="D259" s="3"/>
+      <c r="E259" s="3"/>
+    </row>
+    <row r="260" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A260" s="3"/>
+      <c r="B260" s="3"/>
+      <c r="C260" s="3"/>
+      <c r="D260" s="3"/>
+      <c r="E260" s="3"/>
+    </row>
+    <row r="261" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A261" s="3"/>
+      <c r="B261" s="3"/>
+      <c r="C261" s="3"/>
+      <c r="D261" s="3"/>
+      <c r="E261" s="3"/>
+    </row>
+    <row r="262" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A262" s="3"/>
+      <c r="B262" s="3"/>
+      <c r="C262" s="3"/>
+      <c r="D262" s="3"/>
+      <c r="E262" s="3"/>
+    </row>
+    <row r="263" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A263" s="3"/>
+      <c r="B263" s="3"/>
+      <c r="C263" s="3"/>
+      <c r="D263" s="3"/>
+      <c r="E263" s="3"/>
+    </row>
+    <row r="264" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A264" s="3"/>
+      <c r="B264" s="3"/>
+      <c r="C264" s="3"/>
+      <c r="D264" s="3"/>
+      <c r="E264" s="3"/>
+    </row>
+    <row r="265" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A265" s="3"/>
+      <c r="B265" s="3"/>
+      <c r="C265" s="3"/>
+      <c r="D265" s="3"/>
+      <c r="E265" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:Y12 D16:Y1048576 E13:Y15">
-    <cfRule type="containsBlanks" dxfId="1" priority="5">
-      <formula>LEN(TRIM(D1))=0</formula>
+  <conditionalFormatting sqref="D249">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="D120:E265 D1:E118">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB689139-3580-4870-A345-8D844F82E48B}">
-  <dimension ref="B1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A131FD98-B52B-47E6-BE48-686CDBE91AEB}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="0.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="7.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="1" spans="1:3" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="3"/>
+      <c r="C3" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>